--- a/biology/Zoologie/Austroypthima_petersi/Austroypthima_petersi.xlsx
+++ b/biology/Zoologie/Austroypthima_petersi/Austroypthima_petersi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Austroypthima petersi est une espèce de lépidoptères (papillons) endémique de Nouvelle-Calédonie, appartenant à la famille des Nymphalidae et à la sous-famille des Satyrinae. Elle est l'unique représentante du genre monotypique Austroypthima.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'imago d’Austroypthima petersi a le dessus des ailes uniformément brun, et le dessous brun avec un gros ocelle brun foncé doublement pupillé de blanc à l'aile antérieure et un tout petit ocelle sombre à l'aile postérieure[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'imago d’Austroypthima petersi a le dessus des ailes uniformément brun, et le dessous brun avec un gros ocelle brun foncé doublement pupillé de blanc à l'aile antérieure et un tout petit ocelle sombre à l'aile postérieure.
 </t>
         </is>
       </c>
@@ -543,6 +557,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -568,9 +584,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Austroypthima petersi est endémique de Nouvelle-Calédonie, où elle est présente sur la Grande Terre[2],[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Austroypthima petersi est endémique de Nouvelle-Calédonie, où elle est présente sur la Grande Terre,.
 </t>
         </is>
       </c>
@@ -599,9 +617,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Austroypthima et son unique espèce Austroypthima petersi ont été décrits en 1974 par l'entomologiste anglais Jeremy Daniel Holloway[3],[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Austroypthima et son unique espèce Austroypthima petersi ont été décrits en 1974 par l'entomologiste anglais Jeremy Daniel Holloway,.
 </t>
         </is>
       </c>
@@ -630,9 +650,11 @@
           <t>Protection</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce n'a pas de statut de protection particulier[4].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce n'a pas de statut de protection particulier.
 </t>
         </is>
       </c>
